--- a/reference/deconvoluted_tma.xlsx
+++ b/reference/deconvoluted_tma.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,22 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ER.c1</t>
+          <t>er.c1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ER.c2</t>
+          <t>er.c2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TP53.c1</t>
+          <t>er.c3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TP53.c2</t>
+          <t>p53.c1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p53.c2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>p53.c3</t>
         </is>
       </c>
     </row>
@@ -402,19 +412,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,24 +444,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -456,10 +486,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -468,7 +508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,61 +518,81 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -542,19 +602,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -564,51 +634,71 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -618,73 +708,103 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -694,7 +814,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -704,34 +824,54 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -743,20 +883,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>x</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -765,54 +915,101 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/reference/deconvoluted_tma.xlsx
+++ b/reference/deconvoluted_tma.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>er.c1</t>
+          <t>ER.c1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>er.c2</t>
+          <t>ER.c2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>er.c3</t>
+          <t>ER.c3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
